--- a/spliced/struggle/2023-04-11_10-32-12/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-32-12/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1049878001213073</v>
+        <v>-0.2798952907323835</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1824674848467111</v>
+        <v>-0.2011211831122636</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2606724696233869</v>
+        <v>-0.2037543449550868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2798952907323835</v>
+        <v>0.07621550559997564</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2011211831122636</v>
+        <v>0.3202240578830243</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2037543449550868</v>
+        <v>-1.714594541117549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07621550559997564</v>
+        <v>1.214714780449869</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3202240578830243</v>
+        <v>-0.2680620010942265</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.714594541117549</v>
+        <v>-5.130570538342003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.214714780449869</v>
+        <v>2.21673782914877</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2680620010942265</v>
+        <v>-2.121318969875573</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.130570538342003</v>
+        <v>-6.365980595350262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.21673782914877</v>
+        <v>1.646873444318771</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.121318969875573</v>
+        <v>-0.9547826964408157</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.365980595350262</v>
+        <v>-2.861810609698295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.646873444318771</v>
+        <v>-1.365792244672773</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9547826964408157</v>
+        <v>-0.1524508148431776</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.861810609698295</v>
+        <v>-1.155832886695863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.365792244672773</v>
+        <v>-5.90024196356535</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1524508148431776</v>
+        <v>-0.5142916264012455</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.155832886695863</v>
+        <v>2.305023960769181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.90024196356535</v>
+        <v>-3.965735837817196</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5142916264012455</v>
+        <v>-0.6069814283400773</v>
       </c>
       <c r="C9" t="n">
-        <v>2.305023960769181</v>
+        <v>-1.651228621602052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.965735837817196</v>
+        <v>-5.797070525586607</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6069814283400773</v>
+        <v>-1.400326563976706</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.651228621602052</v>
+        <v>1.329120457172396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.797070525586607</v>
+        <v>-1.573704838752743</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.400326563976706</v>
+        <v>-1.781807705760002</v>
       </c>
       <c r="C11" t="n">
-        <v>1.329120457172396</v>
+        <v>1.208315253257751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.573704838752743</v>
+        <v>-1.48451391607523</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.781807705760002</v>
+        <v>-2.143217463046312</v>
       </c>
       <c r="C12" t="n">
-        <v>1.208315253257751</v>
+        <v>-4.305671475827694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.48451391607523</v>
+        <v>-3.191123038530348</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.143217463046312</v>
+        <v>-1.04998478293419</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.305671475827694</v>
+        <v>-3.277032032608988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.191123038530348</v>
+        <v>-2.79414886981249</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.04998478293419</v>
+        <v>1.120455805212256</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.277032032608988</v>
+        <v>-3.891929678618904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.79414886981249</v>
+        <v>-0.3785691261291502</v>
       </c>
       <c r="B15" t="n">
-        <v>1.120455805212256</v>
+        <v>-0.5515228509902954</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.891929678618904</v>
+        <v>-5.506646633148193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3785691261291502</v>
+        <v>0.511223681271077</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5515228509902954</v>
+        <v>-3.341538593173027</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.506646633148193</v>
+        <v>-3.347421273589136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.511223681271077</v>
+        <v>-1.899449691176408</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.341538593173027</v>
+        <v>-2.177598688751465</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.347421273589136</v>
+        <v>0.188652187585828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.899449691176408</v>
+        <v>-4.877644158899785</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.177598688751465</v>
+        <v>-0.1642134003341204</v>
       </c>
       <c r="C18" t="n">
-        <v>0.188652187585828</v>
+        <v>1.343364715576172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.877644158899785</v>
+        <v>-5.74425581097603</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1642134003341204</v>
+        <v>-0.5421471670269949</v>
       </c>
       <c r="C19" t="n">
-        <v>1.343364715576172</v>
+        <v>1.297248423099513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.74425581097603</v>
+        <v>-6.533521950244904</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.5421471670269949</v>
+        <v>-0.2819428481161567</v>
       </c>
       <c r="C20" t="n">
-        <v>1.297248423099513</v>
+        <v>0.1814587861299474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-6.533521950244904</v>
+        <v>-5.779280513524995</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2819428481161567</v>
+        <v>-3.271673738956447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1814587861299474</v>
+        <v>4.346601516008363</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.140387788414934</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.259726375341407</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.785581156611421</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.632258296012878</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6425724923610687</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.22618693113327</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.271841421723368</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07577018067240526</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.077775649726385</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.740465611219407</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2502757757902145</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.230584308505059</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.173786669969556</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.206141140311958</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.999948702752588</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.527452439069747</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.933494433760643</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.995455801486972</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.818732134997842</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.367858927696945</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.861171409487724</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.338251754641532</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.358771674335002</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.811524987220763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-5.003720842301852</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2583636995404971</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.431181490421301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-6.261017680168152</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.120874315500259</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.274679899215698</v>
       </c>
     </row>
   </sheetData>
